--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.715700000000005</v>
+        <v>5.932399999999998</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.97909999999999</v>
+        <v>15.95489999999999</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.59980000000001</v>
+        <v>-21.585</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.507600000000002</v>
+        <v>6.716599999999995</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.906800000000003</v>
+        <v>4.137600000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5436</v>
+        <v>15.72660000000001</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.044200000000003</v>
+        <v>4.996300000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.19729999999999</v>
+        <v>-21.24560000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.348000000000004</v>
+        <v>9.464600000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.0619</v>
+        <v>-19.96060000000001</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.901300000000003</v>
+        <v>8.825800000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5176</v>
+        <v>-19.1903</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.79379999999999</v>
+        <v>16.76099999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.356200000000002</v>
+        <v>6.916099999999997</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.77140000000001</v>
+        <v>-21.74730000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.89619999999999</v>
+        <v>-21.83859999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4459</v>
+        <v>-22.50450000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.863899999999995</v>
+        <v>4.774899999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.31120000000002</v>
+        <v>16.21980000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.39949999999997</v>
+        <v>-21.43209999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57399999999997</v>
+        <v>-21.56469999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.95550000000001</v>
+        <v>-22.07000000000002</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.6771</v>
+        <v>16.6548</v>
       </c>
     </row>
     <row r="85">
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.50370000000001</v>
+        <v>17.48280000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.38450000000001</v>
+        <v>-21.37300000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.94570000000003</v>
+        <v>17.95030000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.97190000000003</v>
+        <v>18.00540000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-19.91759999999999</v>
+        <v>-20.11719999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.032999999999999</v>
+        <v>5.238399999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.349700000000002</v>
+        <v>8.244800000000003</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.61179999999999</v>
+        <v>16.76679999999999</v>
       </c>
     </row>
   </sheetData>
